--- a/chek_csv/corr.xlsx
+++ b/chek_csv/corr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyotn\workspace\その他\PwC_AH\chek_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC23290D-E941-4969-8075-B68EB7C7D0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A90D882-E133-490C-8989-32F985D8FEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,29 +534,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH60"/>
   <sheetViews>
-    <sheetView zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="AF62" sqref="AF62"/>
+    <sheetView topLeftCell="AB1" zoomScale="63" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="AM14" sqref="AM14:AQ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7"/>
   <cols>
-    <col min="6" max="6" width="9.046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="19" width="8.80859375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="25" width="8.80859375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="4" width="8.80859375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.1875" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.1875" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1875" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.1875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.76171875" customWidth="1"/>
-    <col min="28" max="28" width="8.80859375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.046875" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="8.80859375" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="9.046875" bestFit="1" customWidth="1"/>
-    <col min="35" max="44" width="8.80859375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.046875" bestFit="1" customWidth="1"/>
-    <col min="46" max="50" width="8.80859375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.046875" bestFit="1" customWidth="1"/>
-    <col min="52" max="54" width="8.80859375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="9.046875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.80859375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.1875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="9.1875" bestFit="1" customWidth="1"/>
+    <col min="35" max="44" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.1875" bestFit="1" customWidth="1"/>
+    <col min="46" max="50" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.1875" bestFit="1" customWidth="1"/>
+    <col min="52" max="54" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.1875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="59" width="8.80859375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.1875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60">
@@ -11498,11 +11506,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF3B9C0-B71A-467C-B696-13A045948415}">
   <dimension ref="A1:BI61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J12" zoomScale="37" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="AP32" sqref="AP32"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="46" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="AM61" sqref="AM61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7"/>
+  <cols>
+    <col min="1" max="1" width="26.046875" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:61">
       <c r="B1" t="s">
